--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H2">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I2">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J2">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N2">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O2">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P2">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q2">
-        <v>575.6579128965329</v>
+        <v>689.609238890641</v>
       </c>
       <c r="R2">
-        <v>575.6579128965329</v>
+        <v>6206.483150015769</v>
       </c>
       <c r="S2">
-        <v>0.06064778535324469</v>
+        <v>0.06554710186791134</v>
       </c>
       <c r="T2">
-        <v>0.06064778535324469</v>
+        <v>0.06554710186791131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H3">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I3">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J3">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N3">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O3">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P3">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q3">
-        <v>486.356806422319</v>
+        <v>553.331526675501</v>
       </c>
       <c r="R3">
-        <v>486.356806422319</v>
+        <v>4979.983740079509</v>
       </c>
       <c r="S3">
-        <v>0.05123956874417531</v>
+        <v>0.05259395596855915</v>
       </c>
       <c r="T3">
-        <v>0.05123956874417531</v>
+        <v>0.05259395596855913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H4">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I4">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J4">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N4">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O4">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P4">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q4">
-        <v>317.2154749904361</v>
+        <v>379.4041332662569</v>
       </c>
       <c r="R4">
-        <v>317.2154749904361</v>
+        <v>3414.637199396312</v>
       </c>
       <c r="S4">
-        <v>0.03341987594880048</v>
+        <v>0.03606222186395864</v>
       </c>
       <c r="T4">
-        <v>0.03341987594880048</v>
+        <v>0.03606222186395863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H5">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I5">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J5">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N5">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O5">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P5">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q5">
-        <v>409.7272581644614</v>
+        <v>490.3916135002835</v>
       </c>
       <c r="R5">
-        <v>409.7272581644614</v>
+        <v>4413.524521502552</v>
       </c>
       <c r="S5">
-        <v>0.04316634975362187</v>
+        <v>0.04661154061245093</v>
       </c>
       <c r="T5">
-        <v>0.04316634975362187</v>
+        <v>0.04661154061245092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.3186687363547</v>
+        <v>67.324</v>
       </c>
       <c r="H6">
-        <v>67.3186687363547</v>
+        <v>201.972</v>
       </c>
       <c r="I6">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J6">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N6">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O6">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P6">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q6">
-        <v>869.4572239401077</v>
+        <v>916.8701612453334</v>
       </c>
       <c r="R6">
-        <v>869.4572239401077</v>
+        <v>8251.831451208001</v>
       </c>
       <c r="S6">
-        <v>0.09160067795476531</v>
+        <v>0.08714816807772872</v>
       </c>
       <c r="T6">
-        <v>0.09160067795476531</v>
+        <v>0.08714816807772871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.3186687363547</v>
+        <v>67.324</v>
       </c>
       <c r="H7">
-        <v>67.3186687363547</v>
+        <v>201.972</v>
       </c>
       <c r="I7">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J7">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N7">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O7">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P7">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q7">
-        <v>734.5793904379641</v>
+        <v>735.6820899053333</v>
       </c>
       <c r="R7">
-        <v>734.5793904379641</v>
+        <v>6621.138809148001</v>
       </c>
       <c r="S7">
-        <v>0.07739077705374368</v>
+        <v>0.06992630923419206</v>
       </c>
       <c r="T7">
-        <v>0.07739077705374368</v>
+        <v>0.06992630923419205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.3186687363547</v>
+        <v>67.324</v>
       </c>
       <c r="H8">
-        <v>67.3186687363547</v>
+        <v>201.972</v>
       </c>
       <c r="I8">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J8">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N8">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O8">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P8">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q8">
-        <v>479.1131679025485</v>
+        <v>504.4368741413334</v>
       </c>
       <c r="R8">
-        <v>479.1131679025485</v>
+        <v>4539.931867272</v>
       </c>
       <c r="S8">
-        <v>0.05047642343811487</v>
+        <v>0.04794653741655589</v>
       </c>
       <c r="T8">
-        <v>0.05047642343811487</v>
+        <v>0.04794653741655588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.3186687363547</v>
+        <v>67.324</v>
       </c>
       <c r="H9">
-        <v>67.3186687363547</v>
+        <v>201.972</v>
       </c>
       <c r="I9">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J9">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N9">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O9">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P9">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q9">
-        <v>618.8403155335311</v>
+        <v>652.0003103013332</v>
       </c>
       <c r="R9">
-        <v>618.8403155335311</v>
+        <v>5868.002792712</v>
       </c>
       <c r="S9">
-        <v>0.06519721831941114</v>
+        <v>0.06197238718260346</v>
       </c>
       <c r="T9">
-        <v>0.06519721831941114</v>
+        <v>0.06197238718260346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.6949317203161</v>
+        <v>71.72398199999999</v>
       </c>
       <c r="H10">
-        <v>62.6949317203161</v>
+        <v>215.171946</v>
       </c>
       <c r="I10">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="J10">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N10">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O10">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P10">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q10">
-        <v>809.7391453497775</v>
+        <v>976.792509974116</v>
       </c>
       <c r="R10">
-        <v>809.7391453497775</v>
+        <v>8791.132589767045</v>
       </c>
       <c r="S10">
-        <v>0.08530914763629732</v>
+        <v>0.09284376505466088</v>
       </c>
       <c r="T10">
-        <v>0.08530914763629732</v>
+        <v>0.09284376505466087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.6949317203161</v>
+        <v>71.72398199999999</v>
       </c>
       <c r="H11">
-        <v>62.6949317203161</v>
+        <v>215.171946</v>
       </c>
       <c r="I11">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="J11">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N11">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O11">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P11">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q11">
-        <v>684.1253041860647</v>
+        <v>783.762833077246</v>
       </c>
       <c r="R11">
-        <v>684.1253041860647</v>
+        <v>7053.865497695214</v>
       </c>
       <c r="S11">
-        <v>0.07207524412238403</v>
+        <v>0.07449636600379694</v>
       </c>
       <c r="T11">
-        <v>0.07207524412238403</v>
+        <v>0.07449636600379693</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.6949317203161</v>
+        <v>71.72398199999999</v>
       </c>
       <c r="H12">
-        <v>62.6949317203161</v>
+        <v>215.171946</v>
       </c>
       <c r="I12">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="J12">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N12">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O12">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P12">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q12">
-        <v>446.2056055444981</v>
+        <v>537.404510739844</v>
       </c>
       <c r="R12">
-        <v>446.2056055444981</v>
+        <v>4836.640596658596</v>
       </c>
       <c r="S12">
-        <v>0.04700948459530899</v>
+        <v>0.05108009902304351</v>
       </c>
       <c r="T12">
-        <v>0.04700948459530899</v>
+        <v>0.05108009902304349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.6949317203161</v>
+        <v>71.72398199999999</v>
       </c>
       <c r="H13">
-        <v>62.6949317203161</v>
+        <v>215.171946</v>
       </c>
       <c r="I13">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="J13">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N13">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O13">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P13">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q13">
-        <v>576.3356889914417</v>
+        <v>694.6120034467239</v>
       </c>
       <c r="R13">
-        <v>576.3356889914417</v>
+        <v>6251.508031020515</v>
       </c>
       <c r="S13">
-        <v>0.06071919168363761</v>
+        <v>0.06602261277972314</v>
       </c>
       <c r="T13">
-        <v>0.06071919168363761</v>
+        <v>0.06602261277972314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.8992082188342</v>
+        <v>62.47139133333334</v>
       </c>
       <c r="H14">
-        <v>61.8992082188342</v>
+        <v>187.414174</v>
       </c>
       <c r="I14">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="J14">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N14">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O14">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P14">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q14">
-        <v>799.4619435035572</v>
+        <v>850.7835934438485</v>
       </c>
       <c r="R14">
-        <v>799.4619435035572</v>
+        <v>7657.052340994637</v>
       </c>
       <c r="S14">
-        <v>0.08422640471269999</v>
+        <v>0.08086666436882686</v>
       </c>
       <c r="T14">
-        <v>0.08422640471269999</v>
+        <v>0.08086666436882683</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.8992082188342</v>
+        <v>62.47139133333334</v>
       </c>
       <c r="H15">
-        <v>61.8992082188342</v>
+        <v>187.414174</v>
       </c>
       <c r="I15">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="J15">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N15">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O15">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P15">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q15">
-        <v>675.4423920660264</v>
+        <v>682.6552750193185</v>
       </c>
       <c r="R15">
-        <v>675.4423920660264</v>
+        <v>6143.897475173867</v>
       </c>
       <c r="S15">
-        <v>0.07116046578146368</v>
+        <v>0.06488613018633613</v>
       </c>
       <c r="T15">
-        <v>0.07116046578146368</v>
+        <v>0.0648861301863361</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.8992082188342</v>
+        <v>62.47139133333334</v>
       </c>
       <c r="H16">
-        <v>61.8992082188342</v>
+        <v>187.414174</v>
       </c>
       <c r="I16">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="J16">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N16">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O16">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P16">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q16">
-        <v>440.5423680692802</v>
+        <v>468.0778528822805</v>
       </c>
       <c r="R16">
-        <v>440.5423680692802</v>
+        <v>4212.700675940524</v>
       </c>
       <c r="S16">
-        <v>0.04641284064565274</v>
+        <v>0.04449062595846908</v>
       </c>
       <c r="T16">
-        <v>0.04641284064565274</v>
+        <v>0.04449062595846906</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.8992082188342</v>
+        <v>62.47139133333334</v>
       </c>
       <c r="H17">
-        <v>61.8992082188342</v>
+        <v>187.414174</v>
       </c>
       <c r="I17">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="J17">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N17">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O17">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P17">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q17">
-        <v>569.0208416841808</v>
+        <v>605.0051472623337</v>
       </c>
       <c r="R17">
-        <v>569.0208416841808</v>
+        <v>5445.046325361003</v>
       </c>
       <c r="S17">
-        <v>0.05994854425667825</v>
+        <v>0.05750551440118341</v>
       </c>
       <c r="T17">
-        <v>0.05994854425667825</v>
+        <v>0.0575055144011834</v>
       </c>
     </row>
   </sheetData>
